--- a/data_group/contrast_PF_SF_temp.xlsx
+++ b/data_group/contrast_PF_SF_temp.xlsx
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -431,19 +431,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2477993832638256</v>
+        <v>0.1608938464200372</v>
       </c>
       <c r="E2">
-        <v>0.0475074813421555</v>
+        <v>0.04248324831708114</v>
       </c>
       <c r="F2">
-        <v>702.0546005362638</v>
+        <v>702.0007906186563</v>
       </c>
       <c r="G2">
-        <v>-5.216007590028608</v>
+        <v>-3.78723032709688</v>
       </c>
       <c r="H2">
-        <v>4.81717085035442E-07</v>
+        <v>0.0004961451654702182</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -452,7 +452,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,19 +478,19 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.2412582848850728</v>
+        <v>0.1986177157951486</v>
       </c>
       <c r="E3">
-        <v>0.04235047564025754</v>
+        <v>0.04248324831708113</v>
       </c>
       <c r="F3">
-        <v>702.0000088347307</v>
+        <v>702.0007906265776</v>
       </c>
       <c r="G3">
-        <v>-5.696707799327225</v>
+        <v>-4.675200782970517</v>
       </c>
       <c r="H3">
-        <v>5.391539840901815E-08</v>
+        <v>2.113206865435058E-05</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.278982154260375</v>
+        <v>0.1669959986742016</v>
       </c>
       <c r="E4">
-        <v>0.04235047564025768</v>
+        <v>0.04765622072999207</v>
       </c>
       <c r="F4">
-        <v>702.0000088347307</v>
+        <v>702.0559947518638</v>
       </c>
       <c r="G4">
-        <v>-6.587462125104896</v>
+        <v>-3.504180485069476</v>
       </c>
       <c r="H4">
-        <v>5.266509314681834E-10</v>
+        <v>0.0009741660657932808</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.06585593074508192</v>
+        <v>0.0009108560671906633</v>
       </c>
       <c r="E5">
-        <v>0.04750748134215581</v>
+        <v>0.04248324831708114</v>
       </c>
       <c r="F5">
-        <v>702.0546005361917</v>
+        <v>702.0007906319852</v>
       </c>
       <c r="G5">
-        <v>1.386222314560898</v>
+        <v>-0.02144035833588642</v>
       </c>
       <c r="H5">
-        <v>0.3322382369191592</v>
+        <v>0.9829004721773746</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -593,14 +593,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -614,19 +614,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.04925254206798144</v>
+        <v>-0.04312310177431745</v>
       </c>
       <c r="E6">
-        <v>0.04235047564025773</v>
+        <v>0.04248324831708113</v>
       </c>
       <c r="F6">
-        <v>702.0000088346947</v>
+        <v>702.0007906344259</v>
       </c>
       <c r="G6">
-        <v>-1.16297494475275</v>
+        <v>1.015061311989626</v>
       </c>
       <c r="H6">
-        <v>0.358576174651194</v>
+        <v>0.3725115780245444</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -635,14 +635,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.005218584226460987</v>
+        <v>-0.1146365628704847</v>
       </c>
       <c r="E7">
-        <v>0.04235047564025772</v>
+        <v>0.04765622072999207</v>
       </c>
       <c r="F7">
-        <v>702.0000088346947</v>
+        <v>702.0559947525674</v>
       </c>
       <c r="G7">
-        <v>-0.1232237453668709</v>
+        <v>2.405490009792973</v>
       </c>
       <c r="H7">
-        <v>0.9019651928750244</v>
+        <v>0.04922535474622728</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -677,14 +677,19 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -698,19 +703,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.1981023817983452</v>
+        <v>-0.1012954294183669</v>
       </c>
       <c r="E8">
-        <v>0.04750748134215581</v>
+        <v>0.04248324831708118</v>
       </c>
       <c r="F8">
-        <v>702.0546005361917</v>
+        <v>702.0007906307935</v>
       </c>
       <c r="G8">
-        <v>4.169919688471442</v>
+        <v>2.384361682099512</v>
       </c>
       <c r="H8">
-        <v>0.0002057037894181931</v>
+        <v>0.02606010691913399</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -719,7 +724,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -731,7 +736,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -745,19 +750,19 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.06725620587284292</v>
+        <v>-0.1522335083845469</v>
       </c>
       <c r="E9">
-        <v>0.04235047564025772</v>
+        <v>0.04248324831708118</v>
       </c>
       <c r="F9">
-        <v>702.0000088346947</v>
+        <v>702.0007906307409</v>
       </c>
       <c r="G9">
-        <v>1.588086198703993</v>
+        <v>3.583377317297524</v>
       </c>
       <c r="H9">
-        <v>0.1352605401730458</v>
+        <v>0.001087898479820116</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -766,14 +771,19 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -787,19 +797,19 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.1181942848390392</v>
+        <v>-0.232580551468482</v>
       </c>
       <c r="E10">
-        <v>0.04235047564025773</v>
+        <v>0.04765622072999209</v>
       </c>
       <c r="F10">
-        <v>702.0000088346947</v>
+        <v>702.0559947499238</v>
       </c>
       <c r="G10">
-        <v>2.790860859345</v>
+        <v>4.880381782395705</v>
       </c>
       <c r="H10">
-        <v>0.0120709145524186</v>
+        <v>7.868576820729995E-06</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -808,7 +818,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -820,7 +830,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -834,19 +844,19 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.2690792281185802</v>
+        <v>-0.08780655714097323</v>
       </c>
       <c r="E11">
-        <v>0.04750748134215582</v>
+        <v>0.04248324831708114</v>
       </c>
       <c r="F11">
-        <v>702.0546005361917</v>
+        <v>702.0007906194967</v>
       </c>
       <c r="G11">
-        <v>5.663933774569784</v>
+        <v>2.06685130302687</v>
       </c>
       <c r="H11">
-        <v>1.295057999652007E-07</v>
+        <v>0.0391142583540483</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -855,7 +865,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -867,7 +877,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -881,19 +891,19 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.06330864148221466</v>
+        <v>-0.1862644328110661</v>
       </c>
       <c r="E12">
-        <v>0.04235047564025772</v>
+        <v>0.04248324831708114</v>
       </c>
       <c r="F12">
-        <v>702.0000088346947</v>
+        <v>702.0007906186389</v>
       </c>
       <c r="G12">
-        <v>1.494874391021819</v>
+        <v>4.38442068791089</v>
       </c>
       <c r="H12">
-        <v>0.1353965947688074</v>
+        <v>3.461639476094352E-05</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -902,14 +912,19 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -923,19 +938,19 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.1617665171523257</v>
+        <v>-0.2940160899019401</v>
       </c>
       <c r="E13">
-        <v>0.04235047564025771</v>
+        <v>0.04765622072999206</v>
       </c>
       <c r="F13">
-        <v>702.0000088346947</v>
+        <v>702.055994749285</v>
       </c>
       <c r="G13">
-        <v>3.81970957130297</v>
+        <v>6.169521741301308</v>
       </c>
       <c r="H13">
-        <v>0.0002908762367206177</v>
+        <v>6.941181421618533E-09</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -944,7 +959,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -956,7 +971,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -970,19 +985,19 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.3081339072476614</v>
+        <v>-0.109814566184833</v>
       </c>
       <c r="E14">
-        <v>0.04750748134215583</v>
+        <v>0.04248324831708118</v>
       </c>
       <c r="F14">
-        <v>702.0546005361917</v>
+        <v>702.0007906201287</v>
       </c>
       <c r="G14">
-        <v>6.486008067412287</v>
+        <v>2.584890999040674</v>
       </c>
       <c r="H14">
-        <v>9.978421373618807E-10</v>
+        <v>0.01491238737095119</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -991,7 +1006,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1003,7 +1018,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1017,19 +1032,19 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.09903038463665842</v>
+        <v>-0.2080627159799688</v>
       </c>
       <c r="E15">
-        <v>0.04235047564025773</v>
+        <v>0.04248324831708117</v>
       </c>
       <c r="F15">
-        <v>702.0000088346947</v>
+        <v>702.0007906241515</v>
       </c>
       <c r="G15">
-        <v>2.338353540060873</v>
+        <v>4.897523711629964</v>
       </c>
       <c r="H15">
-        <v>0.0206331263125052</v>
+        <v>3.616672584369843E-06</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1038,7 +1053,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1050,7 +1065,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1064,19 +1079,19 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.1972785344318015</v>
+        <v>-0.3193570349204464</v>
       </c>
       <c r="E16">
-        <v>0.04235047564025773</v>
+        <v>0.04765622072999209</v>
       </c>
       <c r="F16">
-        <v>702.0000088346947</v>
+        <v>702.0559947468287</v>
       </c>
       <c r="G16">
-        <v>4.658236571120621</v>
+        <v>6.701266487954245</v>
       </c>
       <c r="H16">
-        <v>1.144645979009066E-05</v>
+        <v>2.545893072366703E-10</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1085,7 +1100,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1097,7 +1112,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1111,19 +1126,19 @@
         </is>
       </c>
       <c r="D17">
-        <v>-0.2577825330745647</v>
+        <v>-0.1573132322195129</v>
       </c>
       <c r="E17">
-        <v>0.04750748134215581</v>
+        <v>0.04248324831708118</v>
       </c>
       <c r="F17">
-        <v>702.0546005361917</v>
+        <v>702.0007906196771</v>
       </c>
       <c r="G17">
-        <v>5.426146067773563</v>
+        <v>3.702947360460245</v>
       </c>
       <c r="H17">
-        <v>4.760839036730102E-07</v>
+        <v>0.0004596656708102436</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1132,7 +1147,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1144,7 +1159,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1158,19 +1173,19 @@
         </is>
       </c>
       <c r="D18">
-        <v>-0.1573132322195419</v>
+        <v>-0.1616225375951189</v>
       </c>
       <c r="E18">
-        <v>0.04235047564025771</v>
+        <v>0.04248324831708117</v>
       </c>
       <c r="F18">
-        <v>702.0000088346947</v>
+        <v>702.0007906240996</v>
       </c>
       <c r="G18">
-        <v>3.714556444556252</v>
+        <v>3.804382762561393</v>
       </c>
       <c r="H18">
-        <v>0.000439459305019109</v>
+        <v>0.0004596656708102436</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1179,7 +1194,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1191,7 +1206,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1205,19 +1220,19 @@
         </is>
       </c>
       <c r="D19">
-        <v>-0.1616225375951665</v>
+        <v>-0.2582214791991445</v>
       </c>
       <c r="E19">
-        <v>0.04235047564025773</v>
+        <v>0.04765622072999209</v>
       </c>
       <c r="F19">
-        <v>702.0000088346947</v>
+        <v>702.0559947465871</v>
       </c>
       <c r="G19">
-        <v>3.816309856069964</v>
+        <v>5.418421252120705</v>
       </c>
       <c r="H19">
-        <v>0.000439459305019109</v>
+        <v>4.962500613525777E-07</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1226,7 +1241,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1238,7 +1253,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1252,19 +1267,19 @@
         </is>
       </c>
       <c r="D20">
-        <v>-0.2580661849225334</v>
+        <v>-0.1948353891715255</v>
       </c>
       <c r="E20">
-        <v>0.04750748134215581</v>
+        <v>0.04248324831708115</v>
       </c>
       <c r="F20">
-        <v>702.0546005361917</v>
+        <v>702.0007906194126</v>
       </c>
       <c r="G20">
-        <v>5.432116745232253</v>
+        <v>4.586169770195949</v>
       </c>
       <c r="H20">
-        <v>4.610439866814139E-07</v>
+        <v>1.603671643056064E-05</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1273,7 +1288,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1285,7 +1300,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1299,19 +1314,19 @@
         </is>
       </c>
       <c r="D21">
-        <v>-0.1948353891715591</v>
+        <v>-0.1545150601711282</v>
       </c>
       <c r="E21">
-        <v>0.04235047564025773</v>
+        <v>0.04248324831708114</v>
       </c>
       <c r="F21">
-        <v>702.0000088346947</v>
+        <v>702.0007906187798</v>
       </c>
       <c r="G21">
-        <v>4.600547838625726</v>
+        <v>3.637082056858696</v>
       </c>
       <c r="H21">
-        <v>1.499878020753891E-05</v>
+        <v>0.0005918675333046361</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1320,7 +1335,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1332,7 +1347,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1346,19 +1361,19 @@
         </is>
       </c>
       <c r="D22">
-        <v>-0.1545150601711729</v>
+        <v>-0.2585051310471044</v>
       </c>
       <c r="E22">
-        <v>0.04235047564025773</v>
+        <v>0.04765622072999207</v>
       </c>
       <c r="F22">
-        <v>702.0000088346947</v>
+        <v>702.0559947491857</v>
       </c>
       <c r="G22">
-        <v>3.648484647107322</v>
+        <v>5.424373294553259</v>
       </c>
       <c r="H22">
-        <v>0.0005666814856518545</v>
+        <v>4.806400938781817E-07</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1367,7 +1382,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1379,7 +1394,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1393,19 +1408,19 @@
         </is>
       </c>
       <c r="D23">
-        <v>-0.2801436066183487</v>
+        <v>-0.2628884929275528</v>
       </c>
       <c r="E23">
-        <v>0.04750748134215582</v>
+        <v>0.04248324831708116</v>
       </c>
       <c r="F23">
-        <v>702.0546005361917</v>
+        <v>702.0007906306813</v>
       </c>
       <c r="G23">
-        <v>5.896831376951211</v>
+        <v>6.188050663297649</v>
       </c>
       <c r="H23">
-        <v>1.151560801954713E-08</v>
+        <v>3.105201889231839E-09</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1414,7 +1429,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1426,7 +1441,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1440,19 +1455,19 @@
         </is>
       </c>
       <c r="D24">
-        <v>-0.2628884929276094</v>
+        <v>-0.269995220231421</v>
       </c>
       <c r="E24">
-        <v>0.04235047564025773</v>
+        <v>0.04248324831708116</v>
       </c>
       <c r="F24">
-        <v>702.0000088346947</v>
+        <v>702.0007906307254</v>
       </c>
       <c r="G24">
-        <v>6.20745077719296</v>
+        <v>6.355333712155541</v>
       </c>
       <c r="H24">
-        <v>2.762834141714519E-09</v>
+        <v>2.244991489049634E-09</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1461,7 +1476,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1473,7 +1488,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1487,19 +1502,19 @@
         </is>
       </c>
       <c r="D25">
-        <v>-0.2699952202314826</v>
+        <v>-0.2805825527428978</v>
       </c>
       <c r="E25">
-        <v>0.04235047564025773</v>
+        <v>0.04765622072999208</v>
       </c>
       <c r="F25">
-        <v>702.0000088346947</v>
+        <v>702.0559947499396</v>
       </c>
       <c r="G25">
-        <v>6.375258273954995</v>
+        <v>5.887637509751489</v>
       </c>
       <c r="H25">
-        <v>1.985708430587059E-09</v>
+        <v>1.214272276035297E-08</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1508,7 +1523,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1520,7 +1535,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1534,19 +1549,19 @@
         </is>
       </c>
       <c r="D26">
-        <v>-0.2681831570334837</v>
+        <v>-0.02454106496961845</v>
       </c>
       <c r="E26">
-        <v>0.0475074813421558</v>
+        <v>0.04361595159682789</v>
       </c>
       <c r="F26">
-        <v>702.0546005361917</v>
+        <v>702.0096773496819</v>
       </c>
       <c r="G26">
-        <v>5.645072090898474</v>
+        <v>0.5626626055638615</v>
       </c>
       <c r="H26">
-        <v>1.438458564051802E-07</v>
+        <v>0.5738442857415618</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1555,19 +1570,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1581,19 +1591,19 @@
         </is>
       </c>
       <c r="D27">
-        <v>-0.0246713783030052</v>
+        <v>-0.2076309579700001</v>
       </c>
       <c r="E27">
-        <v>0.0434796684218907</v>
+        <v>0.04248324831708111</v>
       </c>
       <c r="F27">
-        <v>702.0087966943918</v>
+        <v>702.0007906342153</v>
       </c>
       <c r="G27">
-        <v>0.5674233313744386</v>
+        <v>4.887360693803597</v>
       </c>
       <c r="H27">
-        <v>0.5706080070539803</v>
+        <v>2.534599056327734E-06</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1602,14 +1612,19 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1623,19 +1638,19 @@
         </is>
       </c>
       <c r="D28">
-        <v>-0.2076309579700051</v>
+        <v>-0.2686221031581024</v>
       </c>
       <c r="E28">
-        <v>0.04235047564025773</v>
+        <v>0.04765622072999205</v>
       </c>
       <c r="F28">
-        <v>702.0000088346947</v>
+        <v>702.0559947522847</v>
       </c>
       <c r="G28">
-        <v>4.902683023768315</v>
+        <v>5.63666398726929</v>
       </c>
       <c r="H28">
-        <v>2.350668636371538E-06</v>
+        <v>1.507252473428101E-07</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1644,7 +1659,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1656,7 +1671,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1670,19 +1685,19 @@
         </is>
       </c>
       <c r="D29">
-        <v>-0.3883795190267366</v>
+        <v>-0.6978978930244942</v>
       </c>
       <c r="E29">
-        <v>0.04750748134215581</v>
+        <v>0.04664445661657764</v>
       </c>
       <c r="F29">
-        <v>702.0546005361917</v>
+        <v>702.0323986878828</v>
       </c>
       <c r="G29">
-        <v>8.175123329093593</v>
+        <v>14.96207574591958</v>
       </c>
       <c r="H29">
-        <v>2.761368623226445E-15</v>
+        <v>2.33988848336753E-43</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1691,7 +1706,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1703,7 +1718,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1717,19 +1732,19 @@
         </is>
       </c>
       <c r="D30">
-        <v>-0.697976835684077</v>
+        <v>-0.498231820538882</v>
       </c>
       <c r="E30">
-        <v>0.04649879127920427</v>
+        <v>0.04248324831708113</v>
       </c>
       <c r="F30">
-        <v>702.031265541209</v>
+        <v>702.0007906264992</v>
       </c>
       <c r="G30">
-        <v>15.01064471747321</v>
+        <v>11.72772422721168</v>
       </c>
       <c r="H30">
-        <v>1.344796833555818E-43</v>
+        <v>1.178511967095131E-28</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1738,7 +1753,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1750,7 +1765,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1764,19 +1779,19 @@
         </is>
       </c>
       <c r="D31">
-        <v>-0.4982318205390158</v>
+        <v>-0.3888184651512215</v>
       </c>
       <c r="E31">
-        <v>0.04235047564025773</v>
+        <v>0.04765622072999205</v>
       </c>
       <c r="F31">
-        <v>702.0000088346947</v>
+        <v>702.0559947523816</v>
       </c>
       <c r="G31">
-        <v>11.76449173254158</v>
+        <v>8.158818706044011</v>
       </c>
       <c r="H31">
-        <v>8.193448230476375E-29</v>
+        <v>3.123946665140193E-15</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1785,7 +1800,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1797,7 +1812,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1811,19 +1826,19 @@
         </is>
       </c>
       <c r="D32">
-        <v>-0.1743482220834001</v>
+        <v>-0.3113427332393606</v>
       </c>
       <c r="E32">
-        <v>0.02408104698373069</v>
+        <v>0.02293262676423211</v>
       </c>
       <c r="F32">
-        <v>710.0142331146259</v>
+        <v>709.9967077514315</v>
       </c>
       <c r="G32">
-        <v>7.240059877844636</v>
+        <v>13.57640956006662</v>
       </c>
       <c r="H32">
-        <v>7.011444738397881E-12</v>
+        <v>1.027729515945479E-36</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1832,7 +1847,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1844,7 +1859,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1858,19 +1873,19 @@
         </is>
       </c>
       <c r="D33">
-        <v>-0.1475332575061375</v>
+        <v>-0.3082187382899958</v>
       </c>
       <c r="E33">
-        <v>0.02146738990052157</v>
+        <v>0.02293262676423211</v>
       </c>
       <c r="F33">
-        <v>710.0000006519465</v>
+        <v>709.9967077491265</v>
       </c>
       <c r="G33">
-        <v>6.872435735773964</v>
+        <v>13.44018465301684</v>
       </c>
       <c r="H33">
-        <v>4.147788808416418E-11</v>
+        <v>2.239027881860957E-36</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1879,7 +1894,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -1891,7 +1906,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1905,19 +1920,19 @@
         </is>
       </c>
       <c r="D34">
-        <v>-0.1444092625566969</v>
+        <v>-0.3391151171156749</v>
       </c>
       <c r="E34">
-        <v>0.02146738990052158</v>
+        <v>0.02572462894015591</v>
       </c>
       <c r="F34">
-        <v>710.0000006519833</v>
+        <v>710.0132756927645</v>
       </c>
       <c r="G34">
-        <v>6.726912923549605</v>
+        <v>13.18250762351403</v>
       </c>
       <c r="H34">
-        <v>7.137559751516601E-11</v>
+        <v>2.358485606501766E-35</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1926,7 +1941,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1938,7 +1953,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1952,19 +1967,19 @@
         </is>
       </c>
       <c r="D35">
-        <v>-0.2466838825459697</v>
+        <v>-0.3759633104291444</v>
       </c>
       <c r="E35">
-        <v>0.02408104698373058</v>
+        <v>0.0229326267642321</v>
       </c>
       <c r="F35">
-        <v>710.0142331146997</v>
+        <v>709.9967077489358</v>
       </c>
       <c r="G35">
-        <v>10.24390188319603</v>
+        <v>16.39425410330806</v>
       </c>
       <c r="H35">
-        <v>9.242810085872205E-23</v>
+        <v>5.460109312397017E-51</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1973,7 +1988,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1985,7 +2000,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1999,19 +2014,19 @@
         </is>
       </c>
       <c r="D36">
-        <v>-0.2207823400705697</v>
+        <v>-0.396638866848382</v>
       </c>
       <c r="E36">
-        <v>0.02146738990052152</v>
+        <v>0.0229326267642321</v>
       </c>
       <c r="F36">
-        <v>710.0000006520571</v>
+        <v>709.9967077453167</v>
       </c>
       <c r="G36">
-        <v>10.28454512139858</v>
+        <v>17.29583230591873</v>
       </c>
       <c r="H36">
-        <v>9.242810085872205E-23</v>
+        <v>2.041829638652201E-55</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2020,7 +2035,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2032,7 +2047,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2046,19 +2061,19 @@
         </is>
       </c>
       <c r="D37">
-        <v>-0.2414578964898181</v>
+        <v>-0.4028222722035315</v>
       </c>
       <c r="E37">
-        <v>0.02146738990052151</v>
+        <v>0.0257246289401559</v>
       </c>
       <c r="F37">
-        <v>710.0000006520571</v>
+        <v>710.0132756932336</v>
       </c>
       <c r="G37">
-        <v>11.24765971125126</v>
+        <v>15.65901195856434</v>
       </c>
       <c r="H37">
-        <v>2.40221605462532E-26</v>
+        <v>2.153217731726061E-47</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2067,7 +2082,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2079,7 +2094,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2093,19 +2108,19 @@
         </is>
       </c>
       <c r="D38">
-        <v>-0.2384968348520413</v>
+        <v>-0.3994662753529032</v>
       </c>
       <c r="E38">
-        <v>0.02408104698373059</v>
+        <v>0.02293262676423213</v>
       </c>
       <c r="F38">
-        <v>710.0142331146997</v>
+        <v>709.9967077483398</v>
       </c>
       <c r="G38">
-        <v>9.903922990274147</v>
+        <v>17.41912426604126</v>
       </c>
       <c r="H38">
-        <v>1.904256577170608E-21</v>
+        <v>2.261149571384048E-56</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2114,7 +2129,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2126,7 +2141,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2140,19 +2155,19 @@
         </is>
       </c>
       <c r="D39">
-        <v>-0.2626387583466129</v>
+        <v>-0.4116221734303079</v>
       </c>
       <c r="E39">
-        <v>0.02146738990052151</v>
+        <v>0.02293262676423213</v>
       </c>
       <c r="F39">
-        <v>710.0000006520571</v>
+        <v>709.9967077474171</v>
       </c>
       <c r="G39">
-        <v>12.23431258125295</v>
+        <v>17.94919429257499</v>
       </c>
       <c r="H39">
-        <v>6.877784026746747E-31</v>
+        <v>6.612162845870665E-59</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2161,7 +2176,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2173,7 +2188,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2187,19 +2202,19 @@
         </is>
       </c>
       <c r="D40">
-        <v>-0.2747946564240233</v>
+        <v>-0.376281771157321</v>
       </c>
       <c r="E40">
-        <v>0.02146738990052151</v>
+        <v>0.02572462894015593</v>
       </c>
       <c r="F40">
-        <v>710.0000006520571</v>
+        <v>710.0132756933951</v>
       </c>
       <c r="G40">
-        <v>12.80056204771069</v>
+        <v>14.62729635605932</v>
       </c>
       <c r="H40">
-        <v>3.990606723408004E-33</v>
+        <v>3.040617778196677E-42</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2208,7 +2223,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2220,7 +2235,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2234,19 +2249,19 @@
         </is>
       </c>
       <c r="D41">
-        <v>-0.2467006655649507</v>
+        <v>-0.3696313280706108</v>
       </c>
       <c r="E41">
-        <v>0.02408104698373058</v>
+        <v>0.02293262676423211</v>
       </c>
       <c r="F41">
-        <v>710.0142331146997</v>
+        <v>709.9967077473482</v>
       </c>
       <c r="G41">
-        <v>10.24459882212033</v>
+        <v>16.11814171445561</v>
       </c>
       <c r="H41">
-        <v>9.1849630712327E-23</v>
+        <v>1.455794278842008E-49</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2255,7 +2270,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2267,7 +2282,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2281,19 +2296,19 @@
         </is>
       </c>
       <c r="D42">
-        <v>-0.2632364042784933</v>
+        <v>-0.3944107876606689</v>
       </c>
       <c r="E42">
-        <v>0.02146738990052151</v>
+        <v>0.02293262676423211</v>
       </c>
       <c r="F42">
-        <v>710.0000006520571</v>
+        <v>709.996707746457</v>
       </c>
       <c r="G42">
-        <v>12.26215229230538</v>
+        <v>17.1986746967787</v>
       </c>
       <c r="H42">
-        <v>5.18071410142901E-31</v>
+        <v>6.677243567951735E-55</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2302,7 +2317,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2314,7 +2329,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2328,19 +2343,19 @@
         </is>
       </c>
       <c r="D43">
-        <v>-0.2880158638685564</v>
+        <v>-0.3540530086560633</v>
       </c>
       <c r="E43">
-        <v>0.0214673899005215</v>
+        <v>0.02572462894015591</v>
       </c>
       <c r="F43">
-        <v>710.0000006520571</v>
+        <v>710.0132756911638</v>
       </c>
       <c r="G43">
-        <v>13.41643605502128</v>
+        <v>13.76319205535322</v>
       </c>
       <c r="H43">
-        <v>5.782611568135702E-36</v>
+        <v>4.48947579511358E-38</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2349,7 +2364,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2361,7 +2376,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2375,19 +2390,19 @@
         </is>
       </c>
       <c r="D44">
-        <v>-0.2253850499373344</v>
+        <v>-0.2678305185392723</v>
       </c>
       <c r="E44">
-        <v>0.02408104698373058</v>
+        <v>0.02293262676423213</v>
       </c>
       <c r="F44">
-        <v>710.0142331146997</v>
+        <v>709.9967077499015</v>
       </c>
       <c r="G44">
-        <v>9.35943732386748</v>
+        <v>11.67901615862888</v>
       </c>
       <c r="H44">
-        <v>2.066172787086998E-19</v>
+        <v>1.79479293418942E-28</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2396,7 +2411,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2408,7 +2423,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2422,19 +2437,19 @@
         </is>
       </c>
       <c r="D45">
-        <v>-0.2219607542432184</v>
+        <v>-0.306920436026237</v>
       </c>
       <c r="E45">
-        <v>0.02146738990052151</v>
+        <v>0.02293262676423213</v>
       </c>
       <c r="F45">
-        <v>710.0000006520571</v>
+        <v>709.996707748117</v>
       </c>
       <c r="G45">
-        <v>10.33943834214453</v>
+        <v>13.38357089144881</v>
       </c>
       <c r="H45">
-        <v>5.846694291250193E-23</v>
+        <v>8.234431103696566E-36</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2443,7 +2458,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2455,7 +2470,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2469,19 +2484,19 @@
         </is>
       </c>
       <c r="D46">
-        <v>-0.2610506717301923</v>
+        <v>-0.2722122335323744</v>
       </c>
       <c r="E46">
-        <v>0.0214673899005215</v>
+        <v>0.02572462894015592</v>
       </c>
       <c r="F46">
-        <v>710.0000006520571</v>
+        <v>710.013275692118</v>
       </c>
       <c r="G46">
-        <v>12.16033588339729</v>
+        <v>10.58177492727421</v>
       </c>
       <c r="H46">
-        <v>2.914775794916441E-30</v>
+        <v>4.249577181204902E-24</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2490,7 +2505,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2502,7 +2517,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2516,19 +2531,19 @@
         </is>
       </c>
       <c r="D47">
-        <v>-0.2300668984678828</v>
+        <v>-0.2343543616762016</v>
       </c>
       <c r="E47">
-        <v>0.02408104698373058</v>
+        <v>0.02293262676423213</v>
       </c>
       <c r="F47">
-        <v>710.0142331146997</v>
+        <v>709.9967077499012</v>
       </c>
       <c r="G47">
-        <v>9.553857796271005</v>
+        <v>10.21925504154293</v>
       </c>
       <c r="H47">
-        <v>3.965279785373697E-20</v>
+        <v>1.73088786331841E-22</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2537,7 +2552,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2549,7 +2564,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2563,19 +2578,19 @@
         </is>
       </c>
       <c r="D48">
-        <v>-0.2343543616762648</v>
+        <v>-0.2566945544070707</v>
       </c>
       <c r="E48">
-        <v>0.02146738990052151</v>
+        <v>0.02293262676423213</v>
       </c>
       <c r="F48">
-        <v>710.0000006520571</v>
+        <v>709.9967077481174</v>
       </c>
       <c r="G48">
-        <v>10.91676085272814</v>
+        <v>11.19342136625341</v>
       </c>
       <c r="H48">
-        <v>2.80631540625315E-25</v>
+        <v>4.044528913988977E-26</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2584,7 +2599,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2596,7 +2611,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2610,19 +2625,19 @@
         </is>
       </c>
       <c r="D49">
-        <v>-0.2566945544071373</v>
+        <v>-0.2310243177668148</v>
       </c>
       <c r="E49">
-        <v>0.0214673899005215</v>
+        <v>0.02572462894015592</v>
       </c>
       <c r="F49">
-        <v>710.0000006520571</v>
+        <v>710.0132756921645</v>
       </c>
       <c r="G49">
-        <v>11.95741799988929</v>
+        <v>8.980666671781915</v>
       </c>
       <c r="H49">
-        <v>2.252235567579877E-29</v>
+        <v>4.780522595474614E-18</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2631,7 +2646,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2643,7 +2658,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2657,19 +2672,19 @@
         </is>
       </c>
       <c r="D50">
-        <v>-0.2800402223075525</v>
+        <v>-0.2820991550014964</v>
       </c>
       <c r="E50">
-        <v>0.02408104698373059</v>
+        <v>0.02293262676423211</v>
       </c>
       <c r="F50">
-        <v>710.0142331146997</v>
+        <v>709.9967077473478</v>
       </c>
       <c r="G50">
-        <v>11.62907171339978</v>
+        <v>12.30121424386869</v>
       </c>
       <c r="H50">
-        <v>1.957022862586792E-28</v>
+        <v>3.478865984333026E-31</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2678,7 +2693,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2690,7 +2705,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2704,19 +2719,19 @@
         </is>
       </c>
       <c r="D51">
-        <v>-0.2820991550017191</v>
+        <v>-0.3002736391297183</v>
       </c>
       <c r="E51">
-        <v>0.02146738990052151</v>
+        <v>0.02293262676423211</v>
       </c>
       <c r="F51">
-        <v>710.0000006520571</v>
+        <v>709.9967077464567</v>
       </c>
       <c r="G51">
-        <v>13.14082225687185</v>
+        <v>13.09373070153714</v>
       </c>
       <c r="H51">
-        <v>5.513427267080571E-35</v>
+        <v>1.818206082497179E-34</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2725,7 +2740,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2737,7 +2752,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2751,19 +2766,19 @@
         </is>
       </c>
       <c r="D52">
-        <v>-0.3002736391299565</v>
+        <v>-0.2809976416063142</v>
       </c>
       <c r="E52">
-        <v>0.02146738990052151</v>
+        <v>0.0257246289401559</v>
       </c>
       <c r="F52">
-        <v>710.0000006520571</v>
+        <v>710.0132756912062</v>
       </c>
       <c r="G52">
-        <v>13.98743119314481</v>
+        <v>10.92329231492547</v>
       </c>
       <c r="H52">
-        <v>1.150643606824952E-38</v>
+        <v>1.759025684224322E-25</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2772,7 +2787,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2784,7 +2799,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2798,19 +2813,19 @@
         </is>
       </c>
       <c r="D53">
-        <v>-0.3149310543512033</v>
+        <v>-0.3464430788180218</v>
       </c>
       <c r="E53">
-        <v>0.02408104698373058</v>
+        <v>0.02293262676423212</v>
       </c>
       <c r="F53">
-        <v>710.0142331146997</v>
+        <v>709.9967077483395</v>
       </c>
       <c r="G53">
-        <v>13.0779635355545</v>
+        <v>15.1069950415958</v>
       </c>
       <c r="H53">
-        <v>7.162231468993538E-35</v>
+        <v>1.935256715275767E-44</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2819,7 +2834,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2831,7 +2846,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2845,19 +2860,19 @@
         </is>
       </c>
       <c r="D54">
-        <v>-0.3464430788180413</v>
+        <v>-0.3593179876806023</v>
       </c>
       <c r="E54">
-        <v>0.02146738990052151</v>
+        <v>0.02293262676423212</v>
       </c>
       <c r="F54">
-        <v>710.0000006520571</v>
+        <v>709.9967077474172</v>
       </c>
       <c r="G54">
-        <v>16.13810903064769</v>
+        <v>15.66841824858147</v>
       </c>
       <c r="H54">
-        <v>1.14900185064199E-49</v>
+        <v>5.789059042117222E-47</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2866,7 +2881,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2878,7 +2893,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2892,19 +2907,19 @@
         </is>
       </c>
       <c r="D55">
-        <v>-0.3593179876806333</v>
+        <v>-0.315888473650175</v>
       </c>
       <c r="E55">
-        <v>0.0214673899005215</v>
+        <v>0.02572462894015592</v>
       </c>
       <c r="F55">
-        <v>710.0000006520571</v>
+        <v>710.0132756935874</v>
       </c>
       <c r="G55">
-        <v>16.73785165992185</v>
+        <v>12.27961244397488</v>
       </c>
       <c r="H55">
-        <v>1.773807318147282E-52</v>
+        <v>2.890533296585183E-31</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2913,7 +2928,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2925,7 +2940,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2939,19 +2954,19 @@
         </is>
       </c>
       <c r="D56">
-        <v>-0.3384465331735437</v>
+        <v>-0.4120485653655706</v>
       </c>
       <c r="E56">
-        <v>0.02408104698373058</v>
+        <v>0.02293262676423211</v>
       </c>
       <c r="F56">
-        <v>710.0142331146997</v>
+        <v>709.9967077489358</v>
       </c>
       <c r="G56">
-        <v>14.05447750682111</v>
+        <v>17.96778753702303</v>
       </c>
       <c r="H56">
-        <v>1.82976581829781E-39</v>
+        <v>5.251931040563612E-59</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2960,7 +2975,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -2972,7 +2987,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2986,19 +3001,19 @@
         </is>
       </c>
       <c r="D57">
-        <v>-0.4120485653656408</v>
+        <v>-0.3737669301469769</v>
       </c>
       <c r="E57">
-        <v>0.0214673899005215</v>
+        <v>0.02293262676423211</v>
       </c>
       <c r="F57">
-        <v>710.0000006520571</v>
+        <v>709.9967077453165</v>
       </c>
       <c r="G57">
-        <v>19.19416227473611</v>
+        <v>16.29847875647368</v>
       </c>
       <c r="H57">
-        <v>1.10650652674693E-65</v>
+        <v>1.710158928995037E-50</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3007,7 +3022,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3019,7 +3034,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3033,19 +3048,19 @@
         </is>
       </c>
       <c r="D58">
-        <v>-0.3737669301470616</v>
+        <v>-0.3394039524724594</v>
       </c>
       <c r="E58">
-        <v>0.0214673899005215</v>
+        <v>0.02572462894015591</v>
       </c>
       <c r="F58">
-        <v>710.0000006520571</v>
+        <v>710.0132756931703</v>
       </c>
       <c r="G58">
-        <v>17.41091636566315</v>
+        <v>13.19373559331124</v>
       </c>
       <c r="H58">
-        <v>2.49993441728945E-56</v>
+        <v>2.092595922851358E-35</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3054,7 +3069,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3066,7 +3081,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3080,19 +3095,19 @@
         </is>
       </c>
       <c r="D59">
-        <v>-0.6670107722570698</v>
+        <v>-0.8164594903065585</v>
       </c>
       <c r="E59">
-        <v>0.02408104698373058</v>
+        <v>0.02293262676423211</v>
       </c>
       <c r="F59">
-        <v>710.0142331146997</v>
+        <v>709.9967077514315</v>
       </c>
       <c r="G59">
-        <v>27.69857858371812</v>
+        <v>35.60252816655028</v>
       </c>
       <c r="H59">
-        <v>9.179427829505249E-115</v>
+        <v>2.64889259634063E-159</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3101,7 +3116,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3113,7 +3128,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3127,19 +3142,19 @@
         </is>
       </c>
       <c r="D60">
-        <v>-0.8164594903066701</v>
+        <v>-0.7602733804035451</v>
       </c>
       <c r="E60">
-        <v>0.0214673899005215</v>
+        <v>0.02293262676423211</v>
       </c>
       <c r="F60">
-        <v>710.0000006520571</v>
+        <v>709.9967077491265</v>
       </c>
       <c r="G60">
-        <v>38.03254583300954</v>
+        <v>33.15247695869446</v>
       </c>
       <c r="H60">
-        <v>1.143409223660204E-172</v>
+        <v>7.243790955091815E-146</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3148,7 +3163,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3160,7 +3175,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3174,19 +3189,19 @@
         </is>
       </c>
       <c r="D61">
-        <v>-0.760273380403657</v>
+        <v>-0.667968191555953</v>
       </c>
       <c r="E61">
-        <v>0.0214673899005215</v>
+        <v>0.02572462894015591</v>
       </c>
       <c r="F61">
-        <v>710.0000006520571</v>
+        <v>710.013275692517</v>
       </c>
       <c r="G61">
-        <v>35.41526864358987</v>
+        <v>25.96609626944942</v>
       </c>
       <c r="H61">
-        <v>1.455094947939878E-158</v>
+        <v>9.979260394347908E-105</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3195,7 +3210,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3207,7 +3222,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3221,19 +3236,19 @@
         </is>
       </c>
       <c r="D62">
-        <v>-0.1459188154999</v>
+        <v>-0.5879622296130754</v>
       </c>
       <c r="E62">
-        <v>0.03177619623069968</v>
+        <v>0.02891681708520618</v>
       </c>
       <c r="F62">
-        <v>710.0190236935376</v>
+        <v>709.9961706941211</v>
       </c>
       <c r="G62">
-        <v>4.592079380442795</v>
+        <v>20.33288200013813</v>
       </c>
       <c r="H62">
-        <v>1.038180226934061E-05</v>
+        <v>5.294579640017436E-72</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3242,7 +3257,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3254,7 +3269,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3268,19 +3283,19 @@
         </is>
       </c>
       <c r="D63">
-        <v>-0.2278949118184245</v>
+        <v>-0.5455889376747364</v>
       </c>
       <c r="E63">
-        <v>0.02832737752600663</v>
+        <v>0.02891681708520618</v>
       </c>
       <c r="F63">
-        <v>710.0000011651834</v>
+        <v>709.9961706967041</v>
       </c>
       <c r="G63">
-        <v>8.045040936429789</v>
+        <v>18.86753082357253</v>
       </c>
       <c r="H63">
-        <v>2.171147653152408E-14</v>
+        <v>3.432042703210367E-64</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3289,7 +3304,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3301,7 +3316,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3315,19 +3330,19 @@
         </is>
       </c>
       <c r="D64">
-        <v>-0.1855216198800305</v>
+        <v>-0.5075040993999614</v>
       </c>
       <c r="E64">
-        <v>0.02832737752600662</v>
+        <v>0.03243734127430563</v>
       </c>
       <c r="F64">
-        <v>710.0000011651834</v>
+        <v>710.0163590206319</v>
       </c>
       <c r="G64">
-        <v>6.549198552167702</v>
+        <v>15.64567499870796</v>
       </c>
       <c r="H64">
-        <v>3.330420324560645E-10</v>
+        <v>2.516148282964948E-47</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3336,7 +3351,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3348,7 +3363,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3362,19 +3377,19 @@
         </is>
       </c>
       <c r="D65">
-        <v>-0.295714283672511</v>
+        <v>-0.4527165245211942</v>
       </c>
       <c r="E65">
-        <v>0.03177619623069964</v>
+        <v>0.02891681708520616</v>
       </c>
       <c r="F65">
-        <v>710.0190236935746</v>
+        <v>709.9961706935276</v>
       </c>
       <c r="G65">
-        <v>9.306157399255209</v>
+        <v>15.65582142693028</v>
       </c>
       <c r="H65">
-        <v>4.850221408607414E-19</v>
+        <v>2.235783243044061E-47</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3383,7 +3398,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3395,7 +3410,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3409,19 +3424,19 @@
         </is>
       </c>
       <c r="D66">
-        <v>-0.2165136328630307</v>
+        <v>-0.5336486275952218</v>
       </c>
       <c r="E66">
-        <v>0.02832737752600656</v>
+        <v>0.02891681708520616</v>
       </c>
       <c r="F66">
-        <v>710.0000011652572</v>
+        <v>709.996170695711</v>
       </c>
       <c r="G66">
-        <v>7.64326428255689</v>
+        <v>18.45461158545822</v>
       </c>
       <c r="H66">
-        <v>1.376825282320211E-13</v>
+        <v>1.225060476403765E-61</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3430,7 +3445,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3442,7 +3457,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3456,19 +3471,19 @@
         </is>
       </c>
       <c r="D67">
-        <v>-0.2974457359370554</v>
+        <v>-0.5334351414359881</v>
       </c>
       <c r="E67">
-        <v>0.02832737752600655</v>
+        <v>0.03243734127430561</v>
       </c>
       <c r="F67">
-        <v>710.0000011652572</v>
+        <v>710.0163590208614</v>
       </c>
       <c r="G67">
-        <v>10.50029201128763</v>
+        <v>16.44509446458655</v>
       </c>
       <c r="H67">
-        <v>2.697030185465239E-23</v>
+        <v>2.973527467189367E-51</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3477,7 +3492,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3489,7 +3504,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3503,19 +3518,19 @@
         </is>
       </c>
       <c r="D68">
-        <v>-0.3200495288097219</v>
+        <v>-0.3437871748775572</v>
       </c>
       <c r="E68">
-        <v>0.03177619623069964</v>
+        <v>0.0289168170852062</v>
       </c>
       <c r="F68">
-        <v>710.0190236935746</v>
+        <v>709.9961706948852</v>
       </c>
       <c r="G68">
-        <v>10.07198994134218</v>
+        <v>11.88883181245554</v>
       </c>
       <c r="H68">
-        <v>6.461438062324076E-22</v>
+        <v>1.490921807764162E-29</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3524,7 +3539,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3536,7 +3551,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3550,19 +3565,19 @@
         </is>
       </c>
       <c r="D69">
-        <v>-0.180206452031179</v>
+        <v>-0.5046622590931951</v>
       </c>
       <c r="E69">
-        <v>0.02832737752600656</v>
+        <v>0.0289168170852062</v>
       </c>
       <c r="F69">
-        <v>710.0000011652572</v>
+        <v>709.9961706972845</v>
       </c>
       <c r="G69">
-        <v>6.361564951282079</v>
+        <v>17.45220636165311</v>
       </c>
       <c r="H69">
-        <v>7.155809020654902E-10</v>
+        <v>3.015728943667913E-56</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3571,7 +3586,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3583,7 +3598,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3597,19 +3612,19 @@
         </is>
       </c>
       <c r="D70">
-        <v>-0.3410815362468211</v>
+        <v>-0.4851482177614027</v>
       </c>
       <c r="E70">
-        <v>0.02832737752600655</v>
+        <v>0.03243734127430565</v>
       </c>
       <c r="F70">
-        <v>710.0000011652572</v>
+        <v>710.0163590209374</v>
       </c>
       <c r="G70">
-        <v>12.04070288305664</v>
+        <v>14.95647296301992</v>
       </c>
       <c r="H70">
-        <v>9.756919108791927E-30</v>
+        <v>1.084583316518452E-43</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3618,7 +3633,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3630,7 +3645,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3644,19 +3659,19 @@
         </is>
       </c>
       <c r="D71">
-        <v>-0.2990668075880979</v>
+        <v>-0.2279618025009501</v>
       </c>
       <c r="E71">
-        <v>0.03177619623069964</v>
+        <v>0.02891681708520618</v>
       </c>
       <c r="F71">
-        <v>710.0190236935746</v>
+        <v>709.9961706943607</v>
       </c>
       <c r="G71">
-        <v>9.41166165442934</v>
+        <v>7.883364266172129</v>
       </c>
       <c r="H71">
-        <v>1.994237543038667E-19</v>
+        <v>2.40298685254996E-14</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3665,7 +3680,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -3677,7 +3692,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3691,19 +3706,19 @@
         </is>
       </c>
       <c r="D72">
-        <v>-0.09687271282832363</v>
+        <v>-0.4157187017942787</v>
       </c>
       <c r="E72">
-        <v>0.02832737752600656</v>
+        <v>0.02891681708520618</v>
       </c>
       <c r="F72">
-        <v>710.0000011652572</v>
+        <v>709.9961706967568</v>
       </c>
       <c r="G72">
-        <v>3.419755772993372</v>
+        <v>14.37636447224892</v>
       </c>
       <c r="H72">
-        <v>0.0007951307432030353</v>
+        <v>1.531645097721548E-40</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3712,7 +3727,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -3724,7 +3739,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3738,19 +3753,19 @@
         </is>
       </c>
       <c r="D73">
-        <v>-0.2846296121216544</v>
+        <v>-0.4316738633660369</v>
       </c>
       <c r="E73">
-        <v>0.02832737752600656</v>
+        <v>0.03243734127430562</v>
       </c>
       <c r="F73">
-        <v>710.0000011652572</v>
+        <v>710.0163590211387</v>
       </c>
       <c r="G73">
-        <v>10.04786312677</v>
+        <v>13.30792988597915</v>
       </c>
       <c r="H73">
-        <v>1.601570678329749E-21</v>
+        <v>9.266914279838086E-36</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3759,7 +3774,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -3771,7 +3786,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3785,19 +3800,19 @@
         </is>
       </c>
       <c r="D74">
-        <v>-0.1509117137636158</v>
+        <v>-0.03803467046319848</v>
       </c>
       <c r="E74">
-        <v>0.03177619623069964</v>
+        <v>0.02891681708520619</v>
       </c>
       <c r="F74">
-        <v>710.0190236935746</v>
+        <v>709.9961706944199</v>
       </c>
       <c r="G74">
-        <v>4.749206376621533</v>
+        <v>1.31531317403038</v>
       </c>
       <c r="H74">
-        <v>4.942908535563218E-06</v>
+        <v>0.2265951373396354</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3806,19 +3821,14 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3832,19 +3842,19 @@
         </is>
       </c>
       <c r="D75">
-        <v>0.0393705748115224</v>
+        <v>-0.2037609963710457</v>
       </c>
       <c r="E75">
-        <v>0.02832737752600655</v>
+        <v>0.02891681708520619</v>
       </c>
       <c r="F75">
-        <v>710.0000011652572</v>
+        <v>709.9961706954797</v>
       </c>
       <c r="G75">
-        <v>-1.389841850887093</v>
+        <v>7.046453133850943</v>
       </c>
       <c r="H75">
-        <v>0.1980150184930669</v>
+        <v>1.305248537527337E-11</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3853,14 +3863,19 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3874,19 +3889,19 @@
         </is>
       </c>
       <c r="D76">
-        <v>-0.1263557510963419</v>
+        <v>-0.2298349251436343</v>
       </c>
       <c r="E76">
-        <v>0.02832737752600656</v>
+        <v>0.03243734127430564</v>
       </c>
       <c r="F76">
-        <v>710.0000011652572</v>
+        <v>710.0163590209673</v>
       </c>
       <c r="G76">
-        <v>4.460552374830261</v>
+        <v>7.085504425286911</v>
       </c>
       <c r="H76">
-        <v>1.425260770606608E-05</v>
+        <v>1.305248537527337E-11</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3895,7 +3910,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -3907,7 +3922,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3921,19 +3936,19 @@
         </is>
       </c>
       <c r="D77">
-        <v>-0.05818900891887824</v>
+        <v>0.1715664947485203</v>
       </c>
       <c r="E77">
-        <v>0.03177619623069964</v>
+        <v>0.0289168170852062</v>
       </c>
       <c r="F77">
-        <v>710.0190236935746</v>
+        <v>709.9961706944198</v>
       </c>
       <c r="G77">
-        <v>1.831213795899858</v>
+        <v>-5.933104402292375</v>
       </c>
       <c r="H77">
-        <v>0.08098501971243043</v>
+        <v>9.289756326569897E-09</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3942,14 +3957,19 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3963,19 +3983,19 @@
         </is>
       </c>
       <c r="D78">
-        <v>0.1715664947486876</v>
+        <v>-0.05504208856404916</v>
       </c>
       <c r="E78">
-        <v>0.02832737752600655</v>
+        <v>0.0289168170852062</v>
       </c>
       <c r="F78">
-        <v>710.0000011652572</v>
+        <v>709.9961706954796</v>
       </c>
       <c r="G78">
-        <v>-6.056561169179085</v>
+        <v>1.903462901946031</v>
       </c>
       <c r="H78">
-        <v>4.508100664497485E-09</v>
+        <v>0.07930154516790007</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3984,19 +4004,14 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>SF_early</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4010,19 +4025,19 @@
         </is>
       </c>
       <c r="D79">
-        <v>-0.05504208856389931</v>
+        <v>-0.0597069750243481</v>
       </c>
       <c r="E79">
-        <v>0.02832737752600654</v>
+        <v>0.03243734127430564</v>
       </c>
       <c r="F79">
-        <v>710.0000011652572</v>
+        <v>710.0163590208424</v>
       </c>
       <c r="G79">
-        <v>1.943070392356891</v>
+        <v>1.840686464387985</v>
       </c>
       <c r="H79">
-        <v>0.07860384542565037</v>
+        <v>0.07930154516790007</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4031,14 +4046,14 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4052,19 +4067,19 @@
         </is>
       </c>
       <c r="D80">
-        <v>-0.06953874257080091</v>
+        <v>0.130326806554436</v>
       </c>
       <c r="E80">
-        <v>0.03177619623069963</v>
+        <v>0.02891681708520618</v>
       </c>
       <c r="F80">
-        <v>710.0190236935746</v>
+        <v>709.9961706943607</v>
       </c>
       <c r="G80">
-        <v>2.188391022825385</v>
+        <v>-4.506955456764675</v>
       </c>
       <c r="H80">
-        <v>0.04344936754143001</v>
+        <v>1.537995416274119E-05</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4073,7 +4088,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4085,7 +4100,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4099,19 +4114,19 @@
         </is>
       </c>
       <c r="D81">
-        <v>0.1303268065544376</v>
+        <v>-0.04809591686294631</v>
       </c>
       <c r="E81">
-        <v>0.02832737752600654</v>
+        <v>0.02891681708520618</v>
       </c>
       <c r="F81">
-        <v>710.0000011652572</v>
+        <v>709.9961706967566</v>
       </c>
       <c r="G81">
-        <v>-4.600736740800955</v>
+        <v>1.663250720894595</v>
       </c>
       <c r="H81">
-        <v>9.971521130780822E-06</v>
+        <v>0.1160442834791523</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4120,19 +4135,14 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>SF_early</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4146,19 +4156,19 @@
         </is>
       </c>
       <c r="D82">
-        <v>-0.04809591686295195</v>
+        <v>-0.07105670867610671</v>
       </c>
       <c r="E82">
-        <v>0.02832737752600654</v>
+        <v>0.03243734127430562</v>
       </c>
       <c r="F82">
-        <v>710.0000011652572</v>
+        <v>710.0163590208666</v>
       </c>
       <c r="G82">
-        <v>1.69785984667294</v>
+        <v>2.190583626297153</v>
       </c>
       <c r="H82">
-        <v>0.1079668848420686</v>
+        <v>0.04320953923740183</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4167,14 +4177,19 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4188,19 +4203,19 @@
         </is>
       </c>
       <c r="D83">
-        <v>0.1240637510528287</v>
+        <v>0.1672261259468699</v>
       </c>
       <c r="E83">
-        <v>0.03177619623069965</v>
+        <v>0.02891681708520619</v>
       </c>
       <c r="F83">
-        <v>710.0190236935746</v>
+        <v>709.9961706948853</v>
       </c>
       <c r="G83">
-        <v>-3.904298366994857</v>
+        <v>-5.78300597379449</v>
       </c>
       <c r="H83">
-        <v>0.0001552618443908308</v>
+        <v>3.299146664071083E-08</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4209,7 +4224,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4221,7 +4236,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4235,19 +4250,19 @@
         </is>
       </c>
       <c r="D84">
-        <v>0.1672261259470971</v>
+        <v>-0.02799895194908212</v>
       </c>
       <c r="E84">
-        <v>0.02832737752600656</v>
+        <v>0.02891681708520619</v>
       </c>
       <c r="F84">
-        <v>710.0000011652572</v>
+        <v>709.9961706972845</v>
       </c>
       <c r="G84">
-        <v>-5.903339474103157</v>
+        <v>0.9682584312990086</v>
       </c>
       <c r="H84">
-        <v>1.655667685694483E-08</v>
+        <v>0.3332450294794945</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -4256,19 +4271,14 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>SF_early</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4282,19 +4292,19 @@
         </is>
       </c>
       <c r="D85">
-        <v>-0.02799895194885743</v>
+        <v>0.1225457849472958</v>
       </c>
       <c r="E85">
-        <v>0.02832737752600656</v>
+        <v>0.03243734127430564</v>
       </c>
       <c r="F85">
-        <v>710.0000011652572</v>
+        <v>710.0163590208363</v>
       </c>
       <c r="G85">
-        <v>0.9884060719405597</v>
+        <v>-3.777923224686948</v>
       </c>
       <c r="H85">
-        <v>0.323290527313058</v>
+        <v>0.0002571000266844896</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4303,14 +4313,19 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4324,19 +4339,19 @@
         </is>
       </c>
       <c r="D86">
-        <v>0.02841375029028498</v>
+        <v>0.1368250642686012</v>
       </c>
       <c r="E86">
-        <v>0.03177619623069964</v>
+        <v>0.02891681708520618</v>
       </c>
       <c r="F86">
-        <v>710.0190236935746</v>
+        <v>709.9961706935278</v>
       </c>
       <c r="G86">
-        <v>-0.8941834977351338</v>
+        <v>-4.731677897516624</v>
       </c>
       <c r="H86">
-        <v>0.4756833251431829</v>
+        <v>1.023233913218465E-05</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4345,14 +4360,19 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4366,19 +4386,19 @@
         </is>
       </c>
       <c r="D87">
-        <v>0.1368250642686835</v>
+        <v>0.001449205066081483</v>
       </c>
       <c r="E87">
-        <v>0.02832737752600655</v>
+        <v>0.02891681708520618</v>
       </c>
       <c r="F87">
-        <v>710.0000011652572</v>
+        <v>709.996170695711</v>
       </c>
       <c r="G87">
-        <v>-4.830135233770521</v>
+        <v>-0.05011634101399409</v>
       </c>
       <c r="H87">
-        <v>6.426264590843165E-06</v>
+        <v>0.9600437730381409</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4387,19 +4407,14 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>SF_early</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4413,19 +4428,19 @@
         </is>
       </c>
       <c r="D88">
-        <v>0.001449205066161641</v>
+        <v>0.02689578418489549</v>
       </c>
       <c r="E88">
-        <v>0.02832737752600656</v>
+        <v>0.03243734127430562</v>
       </c>
       <c r="F88">
-        <v>710.0000011652572</v>
+        <v>710.0163590210262</v>
       </c>
       <c r="G88">
-        <v>-0.05115916801091689</v>
+        <v>-0.8291611805496609</v>
       </c>
       <c r="H88">
-        <v>0.9592130775751736</v>
+        <v>0.5196212933648304</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4434,14 +4449,14 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4455,19 +4470,19 @@
         </is>
       </c>
       <c r="D89">
-        <v>-0.03864652492311901</v>
+        <v>-0.06922301444867088</v>
       </c>
       <c r="E89">
-        <v>0.03177619623069964</v>
+        <v>0.02891681708520618</v>
       </c>
       <c r="F89">
-        <v>710.0190236935746</v>
+        <v>709.996170694121</v>
       </c>
       <c r="G89">
-        <v>1.216209915200039</v>
+        <v>2.393867009799129</v>
       </c>
       <c r="H89">
-        <v>0.2691709637268317</v>
+        <v>0.02539550636717143</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -4476,14 +4491,19 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4497,19 +4517,19 @@
         </is>
       </c>
       <c r="D90">
-        <v>-0.06922301444858356</v>
+        <v>-0.2027029241609409</v>
       </c>
       <c r="E90">
-        <v>0.02832737752600655</v>
+        <v>0.02891681708520618</v>
       </c>
       <c r="F90">
-        <v>710.0000011652572</v>
+        <v>709.9961706967042</v>
       </c>
       <c r="G90">
-        <v>2.443678889266466</v>
+        <v>7.009862930752623</v>
       </c>
       <c r="H90">
-        <v>0.02217118281395561</v>
+        <v>3.335594587793137E-11</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -4518,7 +4538,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -4530,7 +4550,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4544,19 +4564,19 @@
         </is>
       </c>
       <c r="D91">
-        <v>-0.2027029241608584</v>
+        <v>-0.0401644910285189</v>
       </c>
       <c r="E91">
-        <v>0.02832737752600655</v>
+        <v>0.03243734127430562</v>
       </c>
       <c r="F91">
-        <v>710.0000011652572</v>
+        <v>710.0163590213001</v>
       </c>
       <c r="G91">
-        <v>7.155725021660146</v>
+        <v>1.238217728415804</v>
       </c>
       <c r="H91">
-        <v>1.247613364811291E-11</v>
+        <v>0.2592535031244493</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4565,12 +4585,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
